--- a/UPDATE/QUY TRINH DUYET.xlsx
+++ b/UPDATE/QUY TRINH DUYET.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ly_ng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAP\FDC_B1\FDC_B1\UPDATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Hợp đồng" sheetId="1" r:id="rId1"/>
     <sheet name="Bill thanh toán" sheetId="3" r:id="rId2"/>
     <sheet name="BILL VP - BCH" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
   <si>
     <t>XD</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>chỉ huy trưởng ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> phòng pháp chế</t>
   </si>
   <si>
     <t>phòng ME</t>
@@ -376,20 +373,26 @@
 U_DTApprv12</t>
   </si>
   <si>
-    <t>NT</t>
-  </si>
-  <si>
     <t>Nhan Tin</t>
   </si>
   <si>
     <t>Nhan ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phòng hợp đồng</t>
+  </si>
+  <si>
+    <t>phòng hợp đồng</t>
+  </si>
+  <si>
+    <t>Trưởng phòng Tổng Hợp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +445,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -581,6 +592,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,10 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,670 +922,702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
         <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
       </c>
       <c r="J13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="24">
         <v>1</v>
       </c>
       <c r="D20" s="24">
+        <v>6</v>
+      </c>
+      <c r="E20" s="24">
         <v>2</v>
       </c>
-      <c r="E20" s="27">
+      <c r="F20" s="30">
         <v>3</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="24">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="24">
         <v>4</v>
       </c>
-      <c r="I20" s="24">
+      <c r="J20" s="24">
         <v>5</v>
       </c>
-      <c r="J20" s="24">
+      <c r="K20" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>8</v>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>8</v>
+      <c r="H22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>8</v>
+      <c r="F23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>8</v>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>8</v>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="22"/>
-      <c r="E28" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="22"/>
-      <c r="E29" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="22"/>
       <c r="H29" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="22"/>
-      <c r="E30" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="22"/>
       <c r="H30" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>8</v>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="C33" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I33" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1582,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,44 +1647,44 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1646,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -1654,27 +1700,27 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1683,22 +1729,22 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,32 +1752,32 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -1741,59 +1787,59 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1802,23 +1848,23 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -1862,46 +1908,46 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="R1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S1" s="17"/>
       <c r="T1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
@@ -1914,12 +1960,12 @@
       <c r="P2" s="19"/>
       <c r="S2" s="18"/>
       <c r="T2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
@@ -1932,12 +1978,12 @@
       <c r="P3" s="19"/>
       <c r="S3" s="19"/>
       <c r="T3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
@@ -1950,42 +1996,42 @@
       <c r="P4" s="19"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:20" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="20"/>
     </row>
